--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461031.19419011</v>
+        <v>1488766.689222333</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>630538.307020923</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6988472.066085116</v>
+        <v>6988472.066085117</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.1101224634645</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>228.0699716369244</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="W3" t="n">
-        <v>238.7034319673783</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.78216610882018</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>208.6957123392361</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>23.72263463418604</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.806922509876243</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5810588664028</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>102.524443528012</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>46.07392628728185</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.1960350243787</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.67417889435364</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>117.4428572370538</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>41.79283658456311</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.36175976093797</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>47.74806282379154</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>103.6911788543778</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>46.57473665873932</v>
       </c>
       <c r="G15" t="n">
-        <v>126.807149311338</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.3881647021493</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>99.78974769572875</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.65852912023854</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>25.37527508885704</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>11.45727786104306</v>
+        <v>218.2848660597143</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>139.3651529453439</v>
+        <v>106.3909561563549</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>123.1948121952266</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>5.00366643421266</v>
+        <v>107.0260411808366</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>31.46288204362234</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.6046729685542</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>12.25467960897393</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>97.90994322130058</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>117.3450705775784</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>118.260254974883</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>127.5262986521574</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>146.8060390688094</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>117.3450705775782</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>40.48971074646361</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.05468250032555</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.97640474817496</v>
+        <v>73.36175976093797</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>86.65804289016241</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>32.90473339009669</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>8.346463858805084</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.637108967925709</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6396260835082</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>205.090629331563</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>109.4795315340422</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>46.57473665873911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>158.2525819861379</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>104.4946504455966</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>65.63538946316997</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>87.3028380711265</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>180.1289506044693</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.61564851813438</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.188378539512</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.42522453130207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>57.44365817493597</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>98.68313739545469</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.1276524520142</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C2" t="n">
-        <v>284.1276524520142</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.1276524520142</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.9389693285341</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W3" t="n">
-        <v>487.790469534067</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X3" t="n">
-        <v>279.9389693285341</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.9389693285341</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="4">
@@ -4504,31 +4504,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>517.4848137278872</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W5" t="n">
-        <v>517.4848137278872</v>
+        <v>753.253405673024</v>
       </c>
       <c r="X5" t="n">
-        <v>517.4848137278872</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752.3602790325011</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="C6" t="n">
-        <v>577.9072497513741</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>247.6662977045112</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W6" t="n">
-        <v>960.211779238034</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X6" t="n">
-        <v>752.3602790325011</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y6" t="n">
-        <v>752.3602790325011</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="7">
@@ -4741,22 +4741,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4781,13 +4781,13 @@
         <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>502.8591282797204</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>502.8591282797204</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>502.8591282797204</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
         <v>259.4103516356203</v>
@@ -4838,16 +4838,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.2640844659515</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C9" t="n">
-        <v>327.2640844659515</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D9" t="n">
-        <v>327.2640844659515</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>917.5178360285333</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>917.5178360285333</v>
       </c>
       <c r="V9" t="n">
-        <v>327.2640844659515</v>
+        <v>917.5178360285333</v>
       </c>
       <c r="W9" t="n">
-        <v>327.2640844659515</v>
+        <v>917.5178360285333</v>
       </c>
       <c r="X9" t="n">
-        <v>327.2640844659515</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="Y9" t="n">
-        <v>327.2640844659515</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4996,16 +4996,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>846.2271159476757</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C11" t="n">
-        <v>477.2645990072639</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D11" t="n">
-        <v>118.9989004005134</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y11" t="n">
-        <v>1232.826956011797</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>784.9017952688528</v>
+        <v>408.3647964953884</v>
       </c>
       <c r="C12" t="n">
-        <v>784.9017952688528</v>
+        <v>233.9117672142613</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>233.9117672142613</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>74.67431220880584</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278472</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321102</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5142,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="W12" t="n">
-        <v>1368.728931259408</v>
+        <v>823.9765954658751</v>
       </c>
       <c r="X12" t="n">
-        <v>1160.877431053875</v>
+        <v>616.1250952603423</v>
       </c>
       <c r="Y12" t="n">
-        <v>953.1171322889209</v>
+        <v>408.3647964953884</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.5649960805455</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C14" t="n">
-        <v>800.5649960805455</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D14" t="n">
-        <v>442.299297473795</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975219</v>
@@ -5276,52 +5276,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V14" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X14" t="n">
-        <v>1187.164836144667</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y14" t="n">
-        <v>1187.164836144667</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>496.7108479056828</v>
+        <v>79.50451430393332</v>
       </c>
       <c r="C15" t="n">
-        <v>496.7108479056828</v>
+        <v>79.50451430393332</v>
       </c>
       <c r="D15" t="n">
-        <v>496.7108479056828</v>
+        <v>79.50451430393332</v>
       </c>
       <c r="E15" t="n">
-        <v>496.7108479056828</v>
+        <v>79.50451430393332</v>
       </c>
       <c r="F15" t="n">
-        <v>350.1762899325678</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
@@ -5364,43 +5364,43 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313477</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082811</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V15" t="n">
-        <v>958.7085033988383</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W15" t="n">
-        <v>704.4711466706367</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X15" t="n">
-        <v>704.4711466706367</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y15" t="n">
-        <v>496.7108479056828</v>
+        <v>247.7198513240014</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5455,31 +5455,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W16" t="n">
-        <v>260.4488766577695</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F17" t="n">
-        <v>827.338063675322</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612793</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>536.9689116288023</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C18" t="n">
-        <v>362.5158823476753</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D18" t="n">
-        <v>362.5158823476753</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E18" t="n">
-        <v>362.5158823476753</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F18" t="n">
-        <v>215.9813243745603</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G18" t="n">
-        <v>77.56895113373051</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>791.2062683570039</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>536.9689116288023</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>536.9689116288023</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y18" t="n">
-        <v>536.9689116288023</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5695,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1249.50052972653</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="C20" t="n">
-        <v>1249.50052972653</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="D20" t="n">
-        <v>1249.50052972653</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="E20" t="n">
-        <v>863.7122771282855</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="F20" t="n">
-        <v>453.8723054142426</v>
+        <v>662.7890611704761</v>
       </c>
       <c r="G20" t="n">
-        <v>44.03233370019973</v>
+        <v>252.9490894564333</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975219</v>
@@ -5753,49 +5753,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.96628798761</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="X20" t="n">
-        <v>1249.50052972653</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="Y20" t="n">
-        <v>1249.50052972653</v>
+        <v>1072.629032884519</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.8467647021305</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C21" t="n">
         <v>181.3937354210034</v>
@@ -5832,49 +5832,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>291.1713270321932</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313476</v>
+        <v>643.7938174580962</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082811</v>
+        <v>988.3144730957142</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1311.327980270272</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286847</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1482.193406224636</v>
+        <v>1515.500675708463</v>
       </c>
       <c r="T21" t="n">
-        <v>1281.290397330129</v>
+        <v>1314.597666813956</v>
       </c>
       <c r="U21" t="n">
-        <v>1053.087729867608</v>
+        <v>1086.394999351435</v>
       </c>
       <c r="V21" t="n">
-        <v>817.9356216358649</v>
+        <v>851.2428911196919</v>
       </c>
       <c r="W21" t="n">
-        <v>563.6982649076633</v>
+        <v>597.0055343914902</v>
       </c>
       <c r="X21" t="n">
-        <v>355.8467647021305</v>
+        <v>389.1540341859574</v>
       </c>
       <c r="Y21" t="n">
-        <v>355.8467647021305</v>
+        <v>181.3937354210034</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5938,13 +5938,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
         <v>32.45932575975219</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>515.1642286041053</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C23" t="n">
-        <v>515.1642286041053</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D23" t="n">
-        <v>156.8985299973548</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E23" t="n">
-        <v>156.8985299973548</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F23" t="n">
-        <v>156.8985299973548</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G23" t="n">
-        <v>156.8985299973548</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6002,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y23" t="n">
-        <v>901.7640686682271</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>322.2601215528227</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C24" t="n">
-        <v>147.8070922716957</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="D24" t="n">
-        <v>147.8070922716957</v>
+        <v>635.9673856076015</v>
       </c>
       <c r="E24" t="n">
-        <v>147.8070922716957</v>
+        <v>476.729930602146</v>
       </c>
       <c r="F24" t="n">
-        <v>147.8070922716957</v>
+        <v>330.195372629031</v>
       </c>
       <c r="G24" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>91.88297124942903</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>389.6147262310922</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>789.0328628353552</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112289</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286847</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1227.261385483254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V24" t="n">
-        <v>992.109277251511</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W24" t="n">
-        <v>737.8719205233094</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X24" t="n">
-        <v>530.0204203177766</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y24" t="n">
-        <v>322.2601215528227</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D25" t="n">
-        <v>211.1299621906144</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E25" t="n">
-        <v>211.1299621906144</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F25" t="n">
-        <v>64.24001469270405</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="G25" t="n">
-        <v>64.24001469270405</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="H25" t="n">
-        <v>64.24001469270405</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6181,16 +6181,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1496.592180962688</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1496.592180962688</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.755297894942</v>
       </c>
       <c r="V26" t="n">
-        <v>1291.903400644039</v>
+        <v>911.6924105513719</v>
       </c>
       <c r="W26" t="n">
-        <v>939.1347453739247</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="X26" t="n">
-        <v>565.6689871128449</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="Y26" t="n">
-        <v>565.6689871128449</v>
+        <v>558.9237552812577</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>765.1715790913242</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C27" t="n">
-        <v>765.1715790913242</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
         <v>666.272646544556</v>
@@ -6300,28 +6300,28 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.293373622612</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O27" t="n">
-        <v>1454.30688079717</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6330,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V27" t="n">
-        <v>1019.408935819526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W27" t="n">
-        <v>765.1715790913242</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X27" t="n">
-        <v>765.1715790913242</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y27" t="n">
-        <v>765.1715790913242</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6412,22 +6412,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011319</v>
@@ -6503,10 +6503,10 @@
         <v>150.9897000805384</v>
       </c>
       <c r="X29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>910.3247089140674</v>
+        <v>475.3015677070628</v>
       </c>
       <c r="C30" t="n">
-        <v>735.8716796329404</v>
+        <v>300.8485384259358</v>
       </c>
       <c r="D30" t="n">
-        <v>586.9372699716891</v>
+        <v>151.9141287646845</v>
       </c>
       <c r="E30" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1494.151844904622</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U30" t="n">
-        <v>1494.151844904622</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V30" t="n">
-        <v>1494.151844904622</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="W30" t="n">
-        <v>1494.151844904622</v>
+        <v>1059.128703697618</v>
       </c>
       <c r="X30" t="n">
-        <v>1286.300344699089</v>
+        <v>851.2772034920847</v>
       </c>
       <c r="Y30" t="n">
-        <v>1078.540045934135</v>
+        <v>643.5169047271309</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5621133970633</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>106.5621133970633</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="C32" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="D32" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
         <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1163.113117028869</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1163.113117028869</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>1163.113117028869</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W32" t="n">
-        <v>1163.113117028869</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X32" t="n">
-        <v>1163.113117028869</v>
+        <v>32.45932575975186</v>
       </c>
       <c r="Y32" t="n">
-        <v>1163.113117028869</v>
+        <v>32.45932575975186</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>661.618777680701</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="C33" t="n">
-        <v>487.165748399574</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>73.3580234834528</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>505.9483651585071</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>905.3665017627701</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6807,22 +6807,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1374.066492846507</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V33" t="n">
-        <v>1138.914384614764</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W33" t="n">
-        <v>884.6770278865627</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X33" t="n">
-        <v>676.8255276810298</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y33" t="n">
-        <v>661.618777680701</v>
+        <v>247.8110527645798</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6892,16 +6892,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W34" t="n">
-        <v>71.82943156598952</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X34" t="n">
-        <v>71.82943156598952</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.9927024164819</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C35" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D35" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6974,13 +6974,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.197632717495</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X35" t="n">
-        <v>896.7318744564154</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.5925424806037</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>772.7886475620822</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1117.3093031997</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1508.3316234539</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1280.128955991378</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V36" t="n">
-        <v>1044.976847759636</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W36" t="n">
-        <v>790.739491031434</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X36" t="n">
-        <v>582.8879908259012</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.1276920609473</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.5121480999949</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5759651720879</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7126,19 +7126,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="38">
@@ -7175,13 +7175,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7190,34 +7190,34 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1479.895958610329</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.833071266758</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W38" t="n">
-        <v>796.0644159966438</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975219</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7251,52 +7251,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>389.6147262310921</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>789.0328628353551</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1190.717019112288</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1512.380902599688</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1284.178235137166</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577356</v>
+        <v>1049.026126905424</v>
       </c>
       <c r="W39" t="n">
-        <v>455.571351529534</v>
+        <v>794.788770177222</v>
       </c>
       <c r="X39" t="n">
-        <v>247.7198513240011</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.6746627798202</v>
+        <v>586.9372699716891</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>1454.030105059702</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>1454.030105059702</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>1454.030105059702</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>1454.030105059702</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1291.903400644039</v>
+        <v>918.437642382959</v>
       </c>
       <c r="C41" t="n">
-        <v>1291.903400644039</v>
+        <v>918.437642382959</v>
       </c>
       <c r="D41" t="n">
-        <v>933.6377020372884</v>
+        <v>918.437642382959</v>
       </c>
       <c r="E41" t="n">
-        <v>547.8494494390441</v>
+        <v>918.437642382959</v>
       </c>
       <c r="F41" t="n">
-        <v>442.299297473795</v>
+        <v>508.5976706689162</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>98.75769895487338</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7412,13 +7412,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7451,10 +7451,10 @@
         <v>1291.903400644039</v>
       </c>
       <c r="X41" t="n">
-        <v>1291.903400644039</v>
+        <v>918.437642382959</v>
       </c>
       <c r="Y41" t="n">
-        <v>1291.903400644039</v>
+        <v>918.437642382959</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>527.8602733037262</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C42" t="n">
-        <v>527.8602733037262</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D42" t="n">
-        <v>527.8602733037262</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E42" t="n">
-        <v>368.6228182982707</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026704</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7512,28 +7512,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577356</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W42" t="n">
-        <v>527.8602733037262</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X42" t="n">
-        <v>527.8602733037262</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y42" t="n">
-        <v>527.8602733037262</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="43">
@@ -7597,16 +7597,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X43" t="n">
         <v>32.45932575975219</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1237.927521786082</v>
+        <v>811.2618144142067</v>
       </c>
       <c r="C44" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D44" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7649,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,37 +7661,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="Y44" t="n">
-        <v>1237.927521786082</v>
+        <v>1197.861654478329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.45932575975219</v>
+        <v>937.3904246407974</v>
       </c>
       <c r="C45" t="n">
-        <v>32.45932575975219</v>
+        <v>762.9373953596704</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975219</v>
+        <v>614.0029856984191</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975219</v>
+        <v>454.7655306929636</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>308.2309727198486</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>169.8185994790189</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7752,25 +7752,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577356</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="W45" t="n">
-        <v>455.571351529534</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240011</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.95955255904721</v>
+        <v>1105.605761660865</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975219</v>
@@ -7831,25 +7831,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
-        <v>296.5127271079358</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544767</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>251.9990040344217</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304798</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574526</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9255,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335535</v>
       </c>
       <c r="P18" t="n">
-        <v>244.1351504444136</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>74.46639351210661</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>117.9172225363092</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>319.5347010812061</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>247.31430480046</v>
       </c>
       <c r="P27" t="n">
-        <v>244.1351504444136</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>86.93262649026374</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>241.381361814901</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>92.88803957954781</v>
+        <v>351.7205150479948</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>253.3316191141511</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0958621574522</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>296.2561911779081</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.00220832758494</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>103.2763758088208</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -23391,10 +23391,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23473,10 +23473,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>213.161238575653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>306.9349787968914</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23552,13 +23552,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>266.0399218240913</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>98.49447573464457</v>
       </c>
       <c r="G15" t="n">
-        <v>10.22110019708343</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559315</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.61931344112878</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>289.5309751641331</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>64.53209329237282</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>180.3074206884473</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0520304715574</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,16 +23935,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H20" t="n">
-        <v>321.9830378546775</v>
+        <v>115.1554496560063</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24017,7 +24017,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>26.46205974607187</v>
+        <v>59.43625653506082</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24148,7 +24148,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24178,16 +24178,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>213.161238575653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>210.245503520494</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24263,7 +24263,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>132.0245830742088</v>
+        <v>30.00220832758484</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,16 +24333,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7266695472104</v>
@@ -24382,10 +24382,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>116.0390760144584</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>1.310716700476789</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>220.1291686949264</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,10 +24458,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>183.3382342256726</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>49.53512234333817</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>60.81191981453924</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24652,13 +24652,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>153.4545059283733</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24698,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>70.41439893299156</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>252.3860301008907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24765,16 +24765,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>39.38482548051795</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>71.36768015340425</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>187.621475062241</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>152.3478956280992</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,19 +24968,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>73.71044135423043</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008908</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,13 +24999,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25014,7 +25014,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>38.05231206067443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.6280132769788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25132,16 +25132,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.6082486039198</v>
+        <v>145.2228935911568</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25154,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>295.2723271820994</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>278.6148488808455</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25236,22 +25236,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,22 +25281,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>165.9892454154649</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>197.4265213446724</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1948712140116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>120.6824273767247</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25445,16 +25445,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6588881535602</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>164.6404713469061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,16 +25476,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>89.41444727151948</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>159.1079591185652</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>9.474087561072537</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25570,7 +25570,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25600,7 +25600,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.9015159566401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>302.3813952961149</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>267.8049262525506</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>78.52437462028925</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>71.56603255645035</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,19 +25837,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4545059283733</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>186.5148647619667</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>78.24003782756306</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.049560116541556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>159.1079591185653</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>51.74696423767539</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,22 +25992,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>47.75082525111449</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,7 +26071,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491346.463248595</v>
+        <v>491346.4632485953</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491346.463248595</v>
+        <v>491346.4632485953</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491346.4632485953</v>
+        <v>491346.4632485952</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491346.463248595</v>
+        <v>491346.4632485951</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491346.4632485953</v>
+        <v>491346.4632485951</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491346.4632485952</v>
+        <v>491346.4632485953</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491346.463248595</v>
+        <v>491346.4632485951</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491346.4632485955</v>
+        <v>491346.4632485953</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491346.4632485952</v>
+        <v>491346.4632485951</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491346.4632485952</v>
+        <v>491346.4632485953</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>256354.6764775277</v>
@@ -26326,25 +26326,25 @@
         <v>256354.6764775277</v>
       </c>
       <c r="G2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="H2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="J2" t="n">
         <v>256354.6764775277</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="L2" t="n">
         <v>256354.6764775277</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>256354.6764775277</v>
-      </c>
-      <c r="J2" t="n">
-        <v>256354.6764775278</v>
-      </c>
-      <c r="K2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="L2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="M2" t="n">
-        <v>256354.6764775278</v>
       </c>
       <c r="N2" t="n">
         <v>256354.6764775278</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282393.6455117096</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
-        <v>282393.6455117097</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>282393.6455117096</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="H4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="I4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="J4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="L4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="M4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="N4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="O4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="P4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81180.71611155104</v>
+        <v>84449.30149109708</v>
       </c>
       <c r="C6" t="n">
-        <v>161950.1476430985</v>
+        <v>165218.7330226447</v>
       </c>
       <c r="D6" t="n">
-        <v>161950.1476430985</v>
+        <v>165218.7330226449</v>
       </c>
       <c r="E6" t="n">
-        <v>57906.66025728268</v>
+        <v>61244.1947354748</v>
       </c>
       <c r="F6" t="n">
-        <v>224846.8303825294</v>
+        <v>228184.3648607216</v>
       </c>
       <c r="G6" t="n">
-        <v>224846.8303825294</v>
+        <v>228184.3648607215</v>
       </c>
       <c r="H6" t="n">
-        <v>224846.8303825293</v>
+        <v>228184.3648607215</v>
       </c>
       <c r="I6" t="n">
-        <v>224846.8303825294</v>
+        <v>228184.3648607215</v>
       </c>
       <c r="J6" t="n">
-        <v>161786.8877834232</v>
+        <v>165124.4222616154</v>
       </c>
       <c r="K6" t="n">
-        <v>224846.8303825293</v>
+        <v>228184.3648607214</v>
       </c>
       <c r="L6" t="n">
-        <v>224846.8303825293</v>
+        <v>228184.3648607216</v>
       </c>
       <c r="M6" t="n">
-        <v>183796.1325200816</v>
+        <v>187133.6669982737</v>
       </c>
       <c r="N6" t="n">
-        <v>224846.8303825295</v>
+        <v>228184.3648607217</v>
       </c>
       <c r="O6" t="n">
-        <v>224846.8303825294</v>
+        <v>228184.3648607216</v>
       </c>
       <c r="P6" t="n">
-        <v>224846.8303825294</v>
+        <v>228184.3648607216</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26771,7 +26771,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26799,16 +26799,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.6237192000161</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6130699837585</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>48.16969849197108</v>
       </c>
       <c r="W3" t="n">
-        <v>12.99155119354128</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>377.0938796328912</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,31 +27658,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>119.0565461308988</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>113.6208825290246</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8880606510434</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,10 +27828,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>159.6918329046048</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.54476886537191</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>154.0908024075397</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32485,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32503,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>32.61330393555681</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32786,7 +32786,7 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
@@ -32798,7 +32798,7 @@
         <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O24" t="n">
         <v>75.0101950410059</v>
@@ -33035,7 +33035,7 @@
         <v>79.88163340864767</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975593</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O27" t="n">
         <v>75.0101950410059</v>
@@ -33518,7 +33518,7 @@
         <v>60.20229453601702</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
@@ -33734,25 +33734,25 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864767</v>
+        <v>65.32660237014318</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>75.0101950410059</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>40.2436395832661</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33907,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33925,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34044,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34208,7 +34208,7 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>50.90881248409525</v>
@@ -34220,7 +34220,7 @@
         <v>79.8816334086477</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100591</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>226.4115282506011</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>329.125045041106</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>189.746603521051</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>141.3237492791394</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35975,10 +35975,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>290.067408630115</v>
       </c>
       <c r="P18" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>12.21399299873596</v>
+        <v>356.1843337635384</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36291,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>30.98459604604544</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,16 +36446,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>251.9486516777676</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36686,13 +36686,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>179.7282553970214</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813236</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37157,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>43.54219004597043</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37166,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366293</v>
+        <v>388.8976321981248</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37561,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
-        <v>183.2304202568164</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37713,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>141.323749279139</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
